--- a/AssetSelling/asset_selling_policy_parameters.xlsx
+++ b/AssetSelling/asset_selling_policy_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jade0001\Documents\01 - Vorlesungen\Stochastische Optimierungsprobleme\stochastic-optimization\AssetSelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsupe\Documents\stochastic-optimization\AssetSelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B52AE-12DC-4C34-9590-159CD20B310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB2B116-491B-457A-B77E-AA030DFF46DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,6 +216,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -566,16 +572,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD3104C-6FB6-3F44-9F46-136694EB3D8F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -583,7 +589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -591,7 +597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -599,7 +605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -607,7 +613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -615,7 +621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -623,17 +629,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -652,12 +658,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -667,7 +673,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -678,7 +684,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +697,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -702,31 +708,32 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -736,15 +743,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -767,18 +774,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -799,16 +806,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="13.19921875" customWidth="1"/>
+    <col min="3" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -837,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -879,9 +886,9 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -892,7 +899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -906,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -920,7 +927,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
